--- a/task-sheet.xlsx
+++ b/task-sheet.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
   <si>
     <t>Phòng</t>
   </si>
@@ -32,7 +35,7 @@
     <t>quản lý tài nguyên, nhân sự</t>
   </si>
   <si>
-    <t>Phòng ban, nhân viên, chấm công</t>
+    <t>Phòng ban, nhân viên, chấm công, lương tháng</t>
   </si>
   <si>
     <t>Thêm, xóa, sửa</t>
@@ -149,6 +152,12 @@
     <t>Chỉ tính lương nhân viên</t>
   </si>
   <si>
+    <t>LUONGTHANG</t>
+  </si>
+  <si>
+    <t>THÊM</t>
+  </si>
+  <si>
     <t>Lương view</t>
   </si>
   <si>
@@ -161,6 +170,9 @@
     <t>DAC</t>
   </si>
   <si>
+    <t>- Quản lý tài vụ có thể cấp/thu hồi quyền đăng nhập của nhân viên</t>
+  </si>
+  <si>
     <t>- Quản lý tài vụ có thể cấp/thu hồi quyền sửa thông tin đơn giá dịch vụ của tất cả nhân viên tài vụ</t>
   </si>
   <si>
@@ -170,16 +182,22 @@
     <t>- Chỉ có các nhóm quản lý được xem tất cả các bảng dữ liệu</t>
   </si>
   <si>
-    <t>- Các bác sĩ được chỉ định một số quyền nhất định và giống nhau</t>
+    <t>- Tất cả bác sĩ được chỉ định một số quyền nhất định và giống nhau</t>
   </si>
   <si>
     <t>VPD</t>
   </si>
   <si>
-    <t>-</t>
+    <t>- nhân viên không phải quản lý chỉ được phép xem thông tin của chính mình</t>
+  </si>
+  <si>
+    <t>- bác sĩ chỉ được xem thông tin bệnh án mà mình phụ trách</t>
   </si>
   <si>
     <t>MAC</t>
+  </si>
+  <si>
+    <t>------ Xem chấm công</t>
   </si>
   <si>
     <t>Mã hóa</t>
@@ -191,7 +209,13 @@
     <t>Audit &amp; FGA</t>
   </si>
   <si>
-    <t xml:space="preserve">- </t>
+    <t xml:space="preserve">- Ghi log khi thao tac tren bang khoa </t>
+  </si>
+  <si>
+    <t>- Ghi log khi xoa bat ky bang nao</t>
+  </si>
+  <si>
+    <t>- Ghi log khi cap nhat luong nhan vien</t>
   </si>
 </sst>
 </file>
@@ -204,13 +228,15 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -277,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -287,42 +313,39 @@
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf quotePrefix="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf quotePrefix="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf quotePrefix="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -552,17 +575,21 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -613,20 +640,20 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>7</v>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="4"/>
@@ -649,15 +676,15 @@
       <c r="Y3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
-        <v>9</v>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
@@ -680,7 +707,7 @@
       <c r="Y4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -707,21 +734,21 @@
       <c r="Y5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>7</v>
+      <c r="E6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -744,15 +771,15 @@
       <c r="Y6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="8" t="s">
-        <v>8</v>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="9" t="s">
+        <v>9</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="8" t="s">
-        <v>9</v>
+      <c r="E7" s="13"/>
+      <c r="F7" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -775,7 +802,7 @@
       <c r="Y7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -802,19 +829,19 @@
       <c r="Y8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="10"/>
-      <c r="B9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="8" t="s">
-        <v>9</v>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -891,19 +918,19 @@
       <c r="Y11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>20</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -926,15 +953,15 @@
       <c r="Y12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="8" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -984,22 +1011,22 @@
       <c r="Y14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="8" t="s">
-        <v>9</v>
+      <c r="E15" s="13"/>
+      <c r="F15" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1021,15 +1048,15 @@
       <c r="Y15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="12"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="11" t="s">
-        <v>25</v>
+      <c r="A16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="12" t="s">
+        <v>26</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="8" t="s">
-        <v>9</v>
+      <c r="E16" s="13"/>
+      <c r="F16" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1052,15 +1079,15 @@
       <c r="Y16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="12"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8" t="s">
-        <v>26</v>
+      <c r="A17" s="13"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="9" t="s">
+        <v>27</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>27</v>
+      <c r="F17" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1083,15 +1110,15 @@
       <c r="Y17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="12"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8" t="s">
-        <v>28</v>
+      <c r="A18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="9" t="s">
+        <v>29</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="8" t="s">
-        <v>9</v>
+      <c r="E18" s="13"/>
+      <c r="F18" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1141,21 +1168,21 @@
       <c r="Y19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>9</v>
+      <c r="D20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1178,13 +1205,13 @@
       <c r="Y20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="12"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8" t="s">
-        <v>32</v>
+      <c r="A21" s="13"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1207,15 +1234,15 @@
       <c r="Y21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="12"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8" t="s">
-        <v>33</v>
+      <c r="A22" s="13"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9" t="s">
+        <v>34</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8" t="s">
-        <v>34</v>
+      <c r="E22" s="10"/>
+      <c r="F22" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1238,15 +1265,15 @@
       <c r="Y22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="14"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="15" t="s">
-        <v>35</v>
+      <c r="A23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="9" t="s">
+        <v>36</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="15" t="s">
-        <v>36</v>
+      <c r="E23" s="11"/>
+      <c r="F23" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1296,19 +1323,19 @@
       <c r="Y24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15" t="s">
+      <c r="D25" s="9" t="s">
         <v>40</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1331,15 +1358,15 @@
       <c r="Y25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="14"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="15" t="s">
-        <v>33</v>
+      <c r="A26" s="13"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9" t="s">
+        <v>34</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15" t="s">
-        <v>40</v>
+      <c r="E26" s="13"/>
+      <c r="F26" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1362,15 +1389,15 @@
       <c r="Y26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="14"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="15" t="s">
-        <v>35</v>
+      <c r="A27" s="13"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="9" t="s">
+        <v>36</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15" t="s">
-        <v>40</v>
+      <c r="E27" s="13"/>
+      <c r="F27" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1420,22 +1447,22 @@
       <c r="Y28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="14"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>44</v>
+      <c r="G29" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -1460,11 +1487,15 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="16" t="s">
-        <v>45</v>
+      <c r="F30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -1514,11 +1545,11 @@
     </row>
     <row r="32">
       <c r="A32" s="4"/>
-      <c r="C32" s="17" t="s">
-        <v>46</v>
+      <c r="C32" s="16" t="s">
+        <v>49</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>47</v>
+      <c r="D32" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1543,13 +1574,15 @@
       <c r="Y32" s="4"/>
     </row>
     <row r="33">
-      <c r="B33" s="11">
+      <c r="B33" s="12">
         <v>2.1</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>48</v>
+      <c r="C33" s="12" t="s">
+        <v>51</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1573,10 +1606,10 @@
       <c r="Y33" s="4"/>
     </row>
     <row r="34">
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="15" t="s">
-        <v>49</v>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1601,12 +1634,12 @@
       <c r="Y34" s="4"/>
     </row>
     <row r="35">
-      <c r="B35" s="9"/>
-      <c r="C35" s="11" t="s">
-        <v>50</v>
+      <c r="B35" s="10"/>
+      <c r="C35" s="12" t="s">
+        <v>54</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>51</v>
+      <c r="D35" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1631,10 +1664,10 @@
       <c r="Y35" s="4"/>
     </row>
     <row r="36">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="15" t="s">
-        <v>52</v>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1659,14 +1692,14 @@
       <c r="Y36" s="4"/>
     </row>
     <row r="37">
-      <c r="B37" s="11">
+      <c r="B37" s="12">
         <v>2.2</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>53</v>
+      <c r="C37" s="9" t="s">
+        <v>57</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>54</v>
+      <c r="D37" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1691,10 +1724,10 @@
       <c r="Y37" s="4"/>
     </row>
     <row r="38">
-      <c r="B38" s="10"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15" t="s">
-        <v>54</v>
+      <c r="B38" s="11"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1719,14 +1752,14 @@
       <c r="Y38" s="4"/>
     </row>
     <row r="39">
-      <c r="B39" s="15">
+      <c r="B39" s="9">
         <v>2.3</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>55</v>
+      <c r="C39" s="9" t="s">
+        <v>60</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>54</v>
+      <c r="D39" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1751,14 +1784,14 @@
       <c r="Y39" s="4"/>
     </row>
     <row r="40">
-      <c r="B40" s="15">
+      <c r="B40" s="9">
         <v>2.4</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>56</v>
+      <c r="C40" s="9" t="s">
+        <v>62</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>57</v>
+      <c r="D40" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E40" s="4"/>
       <c r="H40" s="4"/>
@@ -1781,14 +1814,14 @@
       <c r="Y40" s="4"/>
     </row>
     <row r="41">
-      <c r="B41" s="11">
+      <c r="B41" s="12">
         <v>2.5</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>58</v>
+      <c r="C41" s="12" t="s">
+        <v>64</v>
       </c>
-      <c r="D41" s="15" t="s">
-        <v>54</v>
+      <c r="D41" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -1814,10 +1847,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="15" t="s">
-        <v>59</v>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -1845,7 +1878,9 @@
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -27817,28 +27852,28 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E23"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B33:B36"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="E40:G40"/>
   </mergeCells>
   <drawing r:id="rId1"/>
